--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2261883.498209114</v>
+        <v>-2264741.281685923</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>219.6382886189844</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>219.6382886189844</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>213.9717103813664</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.98670343452744</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>4.384542125181611</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.9574103762715</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>180.2755336820755</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>219.6382886189845</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>219.6382886189845</v>
+        <v>194.7394407280376</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>46.73162531578787</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.2195097355299</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>148.6658071658275</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>219.6382886189845</v>
+        <v>217.0197151039051</v>
       </c>
       <c r="W3" t="n">
-        <v>74.87535699824217</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19.90943397052115</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.9115236686847</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6382886189844</v>
       </c>
       <c r="U4" t="n">
-        <v>5.107243096708619</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>219.6382886189845</v>
+        <v>219.6382886189844</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>207.184169565901</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,73 +893,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>225.1346772411287</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>66.67731766039428</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>251.1481678782825</v>
+      </c>
+      <c r="V5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>152.7676931992223</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>69.30211948552964</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>45.06001345337919</v>
       </c>
       <c r="I6" t="n">
         <v>43.9218040015056</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.0613732200819</v>
+        <v>258.9976841844831</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>321.2703655859004</v>
+        <v>271.205787565012</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.26784249668242</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>2.516080147285434</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922667</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>172.0260335000812</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.26848612580527</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>130.4114987159134</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>100.0416311957212</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>143.2091541404067</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>258.4213586456705</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.63444609582065</v>
+        <v>455.5609610696711</v>
       </c>
       <c r="C2" t="n">
-        <v>37.63444609582065</v>
+        <v>233.7041038787778</v>
       </c>
       <c r="D2" t="n">
-        <v>37.63444609582065</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="E2" t="n">
-        <v>37.63444609582065</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="F2" t="n">
-        <v>30.68894534661718</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="G2" t="n">
-        <v>17.57106308951876</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="H2" t="n">
-        <v>17.57106308951876</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="I2" t="n">
-        <v>17.57106308951876</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="J2" t="n">
         <v>32.94041018158032</v>
@@ -4334,46 +4334,46 @@
         <v>106.7135956263296</v>
       </c>
       <c r="L2" t="n">
-        <v>235.1375174997735</v>
+        <v>235.1375174997737</v>
       </c>
       <c r="M2" t="n">
-        <v>409.7033126687005</v>
+        <v>409.7033126687006</v>
       </c>
       <c r="N2" t="n">
-        <v>591.7075732852134</v>
+        <v>591.7075732852136</v>
       </c>
       <c r="O2" t="n">
         <v>750.2337743047301</v>
       </c>
       <c r="P2" t="n">
-        <v>851.0312183826494</v>
+        <v>851.0312183826492</v>
       </c>
       <c r="Q2" t="n">
-        <v>878.5531544759378</v>
+        <v>878.5531544759375</v>
       </c>
       <c r="R2" t="n">
-        <v>878.5531544759378</v>
+        <v>874.1243240464611</v>
       </c>
       <c r="S2" t="n">
-        <v>878.5531544759378</v>
+        <v>874.1243240464611</v>
       </c>
       <c r="T2" t="n">
-        <v>663.4446591463707</v>
+        <v>874.1243240464611</v>
       </c>
       <c r="U2" t="n">
-        <v>663.4446591463707</v>
+        <v>874.1243240464611</v>
       </c>
       <c r="V2" t="n">
-        <v>481.3481604776075</v>
+        <v>874.1243240464611</v>
       </c>
       <c r="W2" t="n">
-        <v>259.4913032867141</v>
+        <v>874.1243240464611</v>
       </c>
       <c r="X2" t="n">
-        <v>37.63444609582065</v>
+        <v>677.4178182605644</v>
       </c>
       <c r="Y2" t="n">
-        <v>37.63444609582065</v>
+        <v>677.4178182605644</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239.227754305785</v>
+        <v>340.9585020318971</v>
       </c>
       <c r="C3" t="n">
-        <v>64.77472502465803</v>
+        <v>166.50547275077</v>
       </c>
       <c r="D3" t="n">
-        <v>64.77472502465803</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="E3" t="n">
-        <v>64.77472502465803</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="F3" t="n">
-        <v>64.77472502465803</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="G3" t="n">
-        <v>64.77472502465803</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="H3" t="n">
-        <v>64.77472502465803</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="I3" t="n">
-        <v>17.57106308951876</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="J3" t="n">
-        <v>17.57106308951876</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="K3" t="n">
-        <v>119.8186583493619</v>
+        <v>119.8186583493621</v>
       </c>
       <c r="L3" t="n">
-        <v>249.0205084909441</v>
+        <v>249.0205084909442</v>
       </c>
       <c r="M3" t="n">
         <v>419.1498417208659</v>
       </c>
       <c r="N3" t="n">
-        <v>608.1906370815004</v>
+        <v>608.1906370815003</v>
       </c>
       <c r="O3" t="n">
-        <v>758.906237520649</v>
+        <v>758.9062375206488</v>
       </c>
       <c r="P3" t="n">
-        <v>860.5357279518348</v>
+        <v>860.5357279518345</v>
       </c>
       <c r="Q3" t="n">
-        <v>878.5531544759378</v>
+        <v>878.5531544759375</v>
       </c>
       <c r="R3" t="n">
-        <v>855.0991042380289</v>
+        <v>878.5531544759375</v>
       </c>
       <c r="S3" t="n">
-        <v>704.9316222523446</v>
+        <v>728.3856724902531</v>
       </c>
       <c r="T3" t="n">
-        <v>704.9316222523446</v>
+        <v>728.3856724902531</v>
       </c>
       <c r="U3" t="n">
-        <v>704.9316222523446</v>
+        <v>728.3856724902531</v>
       </c>
       <c r="V3" t="n">
-        <v>483.0747650614512</v>
+        <v>509.1738390519651</v>
       </c>
       <c r="W3" t="n">
-        <v>407.4430913258531</v>
+        <v>509.1738390519651</v>
       </c>
       <c r="X3" t="n">
-        <v>407.4430913258531</v>
+        <v>509.1738390519651</v>
       </c>
       <c r="Y3" t="n">
-        <v>407.4430913258531</v>
+        <v>509.1738390519651</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>651.5374658742277</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="C4" t="n">
-        <v>482.6012829463208</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="D4" t="n">
-        <v>332.484643533985</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="E4" t="n">
-        <v>184.5715499515919</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="F4" t="n">
-        <v>37.68160245368153</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="G4" t="n">
-        <v>37.68160245368153</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="H4" t="n">
-        <v>37.68160245368153</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="I4" t="n">
-        <v>37.68160245368153</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="J4" t="n">
-        <v>17.57106308951876</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="K4" t="n">
-        <v>17.57106308951876</v>
+        <v>115.0177570125928</v>
       </c>
       <c r="L4" t="n">
-        <v>184.827217558487</v>
+        <v>295.2424101146123</v>
       </c>
       <c r="M4" t="n">
-        <v>385.2379679880901</v>
+        <v>495.6531605442153</v>
       </c>
       <c r="N4" t="n">
-        <v>586.3180151343827</v>
+        <v>696.7332076905079</v>
       </c>
       <c r="O4" t="n">
-        <v>756.0316889082253</v>
+        <v>866.4468814643504</v>
       </c>
       <c r="P4" t="n">
-        <v>877.7303735359948</v>
+        <v>877.7303735359944</v>
       </c>
       <c r="Q4" t="n">
-        <v>878.5531544759378</v>
+        <v>878.5531544759375</v>
       </c>
       <c r="R4" t="n">
-        <v>878.5531544759378</v>
+        <v>878.5531544759375</v>
       </c>
       <c r="S4" t="n">
-        <v>878.5531544759378</v>
+        <v>670.561716426761</v>
       </c>
       <c r="T4" t="n">
-        <v>878.5531544759378</v>
+        <v>448.7048592358677</v>
       </c>
       <c r="U4" t="n">
-        <v>873.3943230651211</v>
+        <v>448.7048592358677</v>
       </c>
       <c r="V4" t="n">
-        <v>651.5374658742277</v>
+        <v>226.8480020449744</v>
       </c>
       <c r="W4" t="n">
-        <v>651.5374658742277</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="X4" t="n">
-        <v>651.5374658742277</v>
+        <v>17.57106308951875</v>
       </c>
       <c r="Y4" t="n">
-        <v>651.5374658742277</v>
+        <v>17.57106308951875</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>634.167062227511</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>634.167062227511</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079208</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>566.8162363079208</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>300.4385797407429</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4574,13 +4574,13 @@
         <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946889</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="W5" t="n">
-        <v>900.5447187946889</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="X5" t="n">
-        <v>634.167062227511</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="Y5" t="n">
-        <v>634.167062227511</v>
+        <v>534.7928453799753</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>443.636574548681</v>
+        <v>554.1464335214266</v>
       </c>
       <c r="C6" t="n">
-        <v>443.636574548681</v>
+        <v>554.1464335214266</v>
       </c>
       <c r="D6" t="n">
-        <v>294.7021648874298</v>
+        <v>554.1464335214266</v>
       </c>
       <c r="E6" t="n">
-        <v>135.4647098819743</v>
+        <v>394.9089785159711</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>248.3744205428561</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>110.9777340919233</v>
       </c>
       <c r="H6" t="n">
         <v>65.46256898749988</v>
@@ -4647,49 +4647,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742819</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="W6" t="n">
-        <v>819.7034117742819</v>
+        <v>554.1464335214266</v>
       </c>
       <c r="X6" t="n">
-        <v>611.8519115687491</v>
+        <v>554.1464335214266</v>
       </c>
       <c r="Y6" t="n">
-        <v>611.8519115687491</v>
+        <v>554.1464335214266</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.8040081617345</v>
+        <v>339.7831104574528</v>
       </c>
       <c r="C7" t="n">
-        <v>352.8040081617345</v>
+        <v>339.7831104574528</v>
       </c>
       <c r="D7" t="n">
-        <v>352.8040081617345</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E7" t="n">
-        <v>204.8909145793414</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F7" t="n">
-        <v>204.8909145793414</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4753,22 +4753,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="W7" t="n">
-        <v>534.4524729919742</v>
+        <v>567.7726613554701</v>
       </c>
       <c r="X7" t="n">
-        <v>534.4524729919742</v>
+        <v>339.7831104574528</v>
       </c>
       <c r="Y7" t="n">
-        <v>534.4524729919742</v>
+        <v>339.7831104574528</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1126.76175931604</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="C8" t="n">
-        <v>1126.76175931604</v>
+        <v>690.4032258886157</v>
       </c>
       <c r="D8" t="n">
-        <v>768.4960607092896</v>
+        <v>332.1375272818652</v>
       </c>
       <c r="E8" t="n">
-        <v>382.7078081110454</v>
+        <v>332.1375272818652</v>
       </c>
       <c r="F8" t="n">
-        <v>375.7623073618419</v>
+        <v>325.1920265326617</v>
       </c>
       <c r="G8" t="n">
         <v>51.2467865680031</v>
@@ -4802,25 +4802,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847234</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.22751757712</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1126.76175931604</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1126.76175931604</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4875,7 @@
         <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4884,22 +4884,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>767.0814070827656</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="C10" t="n">
-        <v>598.1452241548587</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D10" t="n">
-        <v>598.1452241548587</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E10" t="n">
-        <v>450.2321305724656</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>303.3421830745552</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>135.3557183828338</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>135.3557183828338</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288652</v>
+        <v>1410.926144170965</v>
       </c>
       <c r="V10" t="n">
-        <v>767.0814070827656</v>
+        <v>1156.241655965078</v>
       </c>
       <c r="W10" t="n">
-        <v>767.0814070827656</v>
+        <v>866.8244859281173</v>
       </c>
       <c r="X10" t="n">
-        <v>767.0814070827656</v>
+        <v>866.8244859281173</v>
       </c>
       <c r="Y10" t="n">
-        <v>767.0814070827656</v>
+        <v>866.8244859281173</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,22 +5054,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687975</v>
+        <v>1098.667160263524</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408906</v>
+        <v>929.7309773356172</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232815</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408884</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.811296842978</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378159</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378159</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.169680383432</v>
+        <v>2273.199413378159</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.485192177545</v>
+        <v>2018.514925172272</v>
       </c>
       <c r="W13" t="n">
-        <v>1431.068022140585</v>
+        <v>1729.097755135311</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.078471242567</v>
+        <v>1501.108204237294</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990373</v>
+        <v>1280.315625093764</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5270,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5294,25 +5294,25 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5601,13 +5601,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,10 +5786,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2345.91093085731</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,7 +6251,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6452,7 +6452,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
         <v>1373.553594266881</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6847,16 +6847,16 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,7 +7099,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
         <v>782.551295565682</v>
@@ -7327,37 +7327,37 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954157</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380735</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.265941231133</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7628,16 +7628,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,16 +7786,16 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>9.761584969221389</v>
+        <v>9.761584969221431</v>
       </c>
       <c r="K3" t="n">
-        <v>41.02023536823069</v>
+        <v>41.02023536823097</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8137,10 +8137,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>8.312762381951401</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>149.3752079728157</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>23.47606578260133</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8295,7 +8295,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>84.94186588374652</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>145.6346031520232</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.98670343452744</v>
       </c>
       <c r="H2" t="n">
-        <v>315.7557180877444</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>156.2434429743993</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>147.4767247880594</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>129.6026800984286</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>92.97244562570451</v>
+        <v>174.9916599504314</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>19.90943397052118</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>130.5809772793341</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>3.868393687181737</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>32.49935470484363</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>79.33882877068999</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>9.000252501563352</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>283.9159882634389</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>35.11263957635549</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>80.98465480592338</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>75.37549921168812</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>24.81829093850965</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,13 +24886,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>27.76311574357368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26314,28 +26314,28 @@
         <v>50775.64226829651</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.13273982128</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
         <v>60535.99497675045</v>
       </c>
       <c r="F2" t="n">
+        <v>60535.99497675045</v>
+      </c>
+      <c r="G2" t="n">
         <v>60535.99497675044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>60535.99497675045</v>
       </c>
       <c r="H2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="J2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="K2" t="n">
         <v>60535.99497675045</v>
@@ -26344,16 +26344,16 @@
         <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>628756.2786403508</v>
+        <v>628756.2786403506</v>
       </c>
       <c r="C3" t="n">
-        <v>48789.17030729426</v>
+        <v>48789.17030729449</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
         <v>507485.441624546</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>57467.0403874256</v>
+        <v>57467.04038742555</v>
       </c>
       <c r="K3" t="n">
-        <v>11343.6468029369</v>
+        <v>11343.64680293686</v>
       </c>
       <c r="L3" t="n">
-        <v>114810.3641312014</v>
+        <v>114810.3641312015</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184911.7492565362</v>
+        <v>184911.7492565361</v>
       </c>
       <c r="C4" t="n">
-        <v>253911.4645514928</v>
+        <v>253911.4645514929</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26430,34 +26430,34 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683046</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="L4" t="n">
-        <v>20987.72340992388</v>
+        <v>20987.72340992391</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.72340992398</v>
+        <v>20987.72340992392</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.72340992396</v>
+        <v>20987.72340992392</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.72340992394</v>
+        <v>20987.72340992391</v>
       </c>
       <c r="P4" t="n">
-        <v>20987.72340992393</v>
+        <v>20987.72340992391</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59540.8817586492</v>
+        <v>59540.88175864919</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-822433.2673872396</v>
+        <v>-822793.3504029567</v>
       </c>
       <c r="C6" t="n">
-        <v>-304170.305323232</v>
+        <v>-304170.3053232323</v>
       </c>
       <c r="D6" t="n">
-        <v>-566439.0974887856</v>
+        <v>-566439.0974887859</v>
       </c>
       <c r="E6" t="n">
-        <v>-561068.8406185331</v>
+        <v>-561103.5785439687</v>
       </c>
       <c r="F6" t="n">
-        <v>-53583.39899398711</v>
+        <v>-53618.1369194228</v>
       </c>
       <c r="G6" t="n">
-        <v>-53583.39899398708</v>
+        <v>-53618.13691942281</v>
       </c>
       <c r="H6" t="n">
-        <v>-53583.3989939871</v>
+        <v>-53618.1369194228</v>
       </c>
       <c r="I6" t="n">
-        <v>-53583.39899398711</v>
+        <v>-53618.13691942282</v>
       </c>
       <c r="J6" t="n">
-        <v>-111050.4393814127</v>
+        <v>-111085.1773068484</v>
       </c>
       <c r="K6" t="n">
-        <v>-64927.04579692405</v>
+        <v>-64961.78372235967</v>
       </c>
       <c r="L6" t="n">
         <v>-177384.0706552195</v>
@@ -26555,13 +26555,13 @@
         <v>-195181.0002529448</v>
       </c>
       <c r="N6" t="n">
-        <v>-62573.70652401802</v>
+        <v>-62573.70652401808</v>
       </c>
       <c r="O6" t="n">
-        <v>-62573.70652401815</v>
+        <v>-62573.70652401807</v>
       </c>
       <c r="P6" t="n">
-        <v>-62573.70652401809</v>
+        <v>-62573.70652401807</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>576.1134775511443</v>
+        <v>576.1134775511441</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.6382886189845</v>
+        <v>219.6382886189844</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26796,10 +26796,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.135142773429314e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203964</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>576.1134775511443</v>
+        <v>576.1134775511441</v>
       </c>
       <c r="C3" t="n">
-        <v>37.94153621833391</v>
+        <v>37.94153621833414</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241346</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.6382886189845</v>
+        <v>219.6382886189844</v>
       </c>
       <c r="C4" t="n">
-        <v>44.07559138252168</v>
+        <v>44.07559138252176</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>219.6382886189842</v>
+        <v>219.6382886189844</v>
       </c>
       <c r="K4" t="n">
-        <v>44.07559138252191</v>
+        <v>44.07559138252176</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.135142773429314e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>219.6382886189845</v>
+        <v>219.6382886189844</v>
       </c>
       <c r="K4" t="n">
-        <v>44.07559138252168</v>
+        <v>44.07559138252176</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>163.0955530444962</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>140.7113312393165</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.7557180877444</v>
       </c>
       <c r="I2" t="n">
         <v>121.1869856777808</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.384542125181525</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>156.2434429743993</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.9574103762715</v>
       </c>
       <c r="U2" t="n">
         <v>251.1603701813879</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>57.12036643378006</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,7 +27476,7 @@
         <v>100.2675019952925</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>46.73162531578789</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.21950973552993</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27515,10 +27515,10 @@
         <v>225.8598565888685</v>
       </c>
       <c r="V3" t="n">
-        <v>13.16229853044081</v>
+        <v>15.78087204552014</v>
       </c>
       <c r="W3" t="n">
-        <v>176.8196261626774</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.952086202219</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>130.5809772793341</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.9115236686847</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.5066823061661</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>281.155119360351</v>
+        <v>286.2623624570596</v>
       </c>
       <c r="V4" t="n">
-        <v>32.49935470484354</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>157.5991644223519</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>288.0057239602887</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>75.76709290785423</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>54.41930681783057</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27749,16 +27749,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>23.46162511650914</v>
+        <v>27.52531415210791</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>90.27733718705355</v>
+        <v>140.341915207942</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>21.52875270721816</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>283.7110739739152</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,22 +29560,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.732899951852491e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29983,10 +29983,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30232,10 +30232,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.316034080607614</v>
+        <v>2.316034080607613</v>
       </c>
       <c r="H2" t="n">
-        <v>23.71908402802273</v>
+        <v>23.71908402802272</v>
       </c>
       <c r="I2" t="n">
-        <v>89.28890389262511</v>
+        <v>89.28890389262507</v>
       </c>
       <c r="J2" t="n">
         <v>196.5704975489706</v>
       </c>
       <c r="K2" t="n">
-        <v>294.608220181091</v>
+        <v>294.6082201810909</v>
       </c>
       <c r="L2" t="n">
-        <v>365.4875481754863</v>
+        <v>365.4875481754862</v>
       </c>
       <c r="M2" t="n">
-        <v>406.6753192564919</v>
+        <v>406.6753192564918</v>
       </c>
       <c r="N2" t="n">
-        <v>413.2557510880184</v>
+        <v>413.2557510880182</v>
       </c>
       <c r="O2" t="n">
-        <v>390.2256871989764</v>
+        <v>390.2256871989762</v>
       </c>
       <c r="P2" t="n">
-        <v>333.0485958339759</v>
+        <v>333.0485958339758</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.1056253222156</v>
+        <v>250.1056253222155</v>
       </c>
       <c r="R2" t="n">
-        <v>145.4845758159682</v>
+        <v>145.4845758159681</v>
       </c>
       <c r="S2" t="n">
-        <v>52.77662661184605</v>
+        <v>52.77662661184603</v>
       </c>
       <c r="T2" t="n">
         <v>10.13843918785983</v>
@@ -31124,7 +31124,7 @@
         <v>11.96794224120396</v>
       </c>
       <c r="I3" t="n">
-        <v>42.6650075356272</v>
+        <v>42.66500753562719</v>
       </c>
       <c r="J3" t="n">
         <v>117.0760416974453</v>
@@ -31133,34 +31133,34 @@
         <v>200.1016028584951</v>
       </c>
       <c r="L3" t="n">
-        <v>269.0612991148057</v>
+        <v>269.0612991148056</v>
       </c>
       <c r="M3" t="n">
-        <v>313.9818452653736</v>
+        <v>313.9818452653735</v>
       </c>
       <c r="N3" t="n">
-        <v>322.2920104274086</v>
+        <v>322.2920104274085</v>
       </c>
       <c r="O3" t="n">
-        <v>294.8342246860087</v>
+        <v>294.8342246860086</v>
       </c>
       <c r="P3" t="n">
-        <v>236.6304583549219</v>
+        <v>236.6304583549218</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.1811948174388</v>
+        <v>158.1811948174387</v>
       </c>
       <c r="R3" t="n">
-        <v>76.93832441711324</v>
+        <v>76.93832441711321</v>
       </c>
       <c r="S3" t="n">
-        <v>23.01736393801033</v>
+        <v>23.01736393801032</v>
       </c>
       <c r="T3" t="n">
-        <v>4.994795149712278</v>
+        <v>4.994795149712276</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08152549210629405</v>
+        <v>0.08152549210629402</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,46 +31200,46 @@
         <v>1.038893156239768</v>
       </c>
       <c r="H4" t="n">
-        <v>9.236704607295401</v>
+        <v>9.236704607295398</v>
       </c>
       <c r="I4" t="n">
-        <v>31.24235055310141</v>
+        <v>31.2423505531014</v>
       </c>
       <c r="J4" t="n">
-        <v>73.44974614615163</v>
+        <v>73.4497461461516</v>
       </c>
       <c r="K4" t="n">
-        <v>120.700495788584</v>
+        <v>120.7004957885839</v>
       </c>
       <c r="L4" t="n">
-        <v>154.455078883138</v>
+        <v>154.4550788831379</v>
       </c>
       <c r="M4" t="n">
-        <v>162.851224482203</v>
+        <v>162.8512244822029</v>
       </c>
       <c r="N4" t="n">
-        <v>158.9789863544003</v>
+        <v>158.9789863544002</v>
       </c>
       <c r="O4" t="n">
         <v>146.842825392872</v>
       </c>
       <c r="P4" t="n">
-        <v>125.6494050055807</v>
+        <v>125.6494050055806</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.99313511022279</v>
+        <v>86.99313511022275</v>
       </c>
       <c r="R4" t="n">
-        <v>46.71241409783539</v>
+        <v>46.71241409783537</v>
       </c>
       <c r="S4" t="n">
         <v>18.10507436828759</v>
       </c>
       <c r="T4" t="n">
-        <v>4.438907122115372</v>
+        <v>4.438907122115371</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05666689943126016</v>
+        <v>0.05666689943126014</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,16 +32795,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>200.4500263280939</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,7 +33269,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>597.1709559744729</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,28 +34448,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.52459302228434</v>
+        <v>15.52459302228428</v>
       </c>
       <c r="K2" t="n">
-        <v>74.51836913611044</v>
+        <v>74.51836913611032</v>
       </c>
       <c r="L2" t="n">
-        <v>129.7211332054991</v>
+        <v>129.7211332054989</v>
       </c>
       <c r="M2" t="n">
-        <v>176.3290860292192</v>
+        <v>176.329086029219</v>
       </c>
       <c r="N2" t="n">
-        <v>183.8426874914275</v>
+        <v>183.8426874914273</v>
       </c>
       <c r="O2" t="n">
-        <v>160.1274757772897</v>
+        <v>160.1274757772895</v>
       </c>
       <c r="P2" t="n">
-        <v>101.8156000787063</v>
+        <v>101.8156000787062</v>
       </c>
       <c r="Q2" t="n">
-        <v>27.79993544776613</v>
+        <v>27.79993544776605</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>103.2803992523668</v>
+        <v>103.280399252367</v>
       </c>
       <c r="L3" t="n">
-        <v>130.5069193349315</v>
+        <v>130.5069193349314</v>
       </c>
       <c r="M3" t="n">
-        <v>171.8478113433553</v>
+        <v>171.8478113433552</v>
       </c>
       <c r="N3" t="n">
-        <v>190.9502983440753</v>
+        <v>190.9502983440752</v>
       </c>
       <c r="O3" t="n">
-        <v>152.2379802415643</v>
+        <v>152.2379802415642</v>
       </c>
       <c r="P3" t="n">
-        <v>102.6560509405917</v>
+        <v>102.6560509405916</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.19942073141723</v>
+        <v>18.19942073141718</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>98.43100396270107</v>
       </c>
       <c r="L4" t="n">
-        <v>168.9456105747154</v>
+        <v>182.045104143454</v>
       </c>
       <c r="M4" t="n">
         <v>202.4351014440435</v>
       </c>
       <c r="N4" t="n">
-        <v>203.1111587336289</v>
+        <v>203.1111587336288</v>
       </c>
       <c r="O4" t="n">
         <v>171.4279533069117</v>
       </c>
       <c r="P4" t="n">
-        <v>122.9279642704741</v>
+        <v>11.39746673903433</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8310918585284099</v>
+        <v>0.8310918585283673</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>382.6222265215968</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,16 +36443,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>66.47561891376371</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,7 +36917,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>455.0369220524547</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -38096,28 +38096,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
